--- a/google2018.xlsx
+++ b/google2018.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/stanislavermohin/Desktop/NSU/Экономика/Риск-менеджмент/New/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59CE9375-0C72-2E4D-9109-16D5C46BBD98}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD0575E8-1FBB-EB4F-A8F1-1CA6C63F82B7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -775,7 +775,7 @@
     <numFmt numFmtId="164" formatCode="_-* #,##0.000_-;\-* #,##0.000_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1507,7 +1507,7 @@
   <sheetViews>
     <sheetView zoomScale="91" zoomScaleNormal="65" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="31.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="28.6640625" style="1" bestFit="1" customWidth="1"/>
@@ -1517,7 +1517,7 @@
     <col min="6" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="21" thickBot="1">
       <c r="A1" s="13" t="s">
         <v>59</v>
       </c>
@@ -1532,7 +1532,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="19" thickTop="1" thickBot="1">
       <c r="A2" s="36" t="s">
         <v>62</v>
       </c>
@@ -1543,7 +1543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="17" thickTop="1" thickBot="1">
       <c r="A3" s="37" t="s">
         <v>1</v>
       </c>
@@ -1558,7 +1558,7 @@
         <v>16700</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="17" thickTop="1" thickBot="1">
       <c r="A4" s="37"/>
       <c r="B4" s="39"/>
       <c r="C4" s="5" t="s">
@@ -1569,7 +1569,7 @@
         <v>92440</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="17" thickTop="1" thickBot="1">
       <c r="A5" s="37"/>
       <c r="B5" s="38" t="s">
         <v>5</v>
@@ -1584,7 +1584,7 @@
         <v>21570</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="17" thickTop="1" thickBot="1">
       <c r="A6" s="37"/>
       <c r="B6" s="40"/>
       <c r="C6" s="35"/>
@@ -1595,7 +1595,7 @@
         <v>-729</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="17" thickTop="1" thickBot="1">
       <c r="A7" s="37"/>
       <c r="B7" s="39"/>
       <c r="C7" s="5" t="s">
@@ -1606,7 +1606,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="17" thickTop="1" thickBot="1">
       <c r="A8" s="37"/>
       <c r="B8" s="8" t="s">
         <v>10</v>
@@ -1619,7 +1619,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="17" thickTop="1" thickBot="1">
       <c r="A9" s="37"/>
       <c r="B9" s="8" t="s">
         <v>12</v>
@@ -1632,7 +1632,7 @@
         <v>4240</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="17" thickTop="1" thickBot="1">
       <c r="A10" s="37"/>
       <c r="B10" s="8" t="s">
         <v>14</v>
@@ -1643,7 +1643,7 @@
         <v>135680</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="17" thickTop="1" thickBot="1">
       <c r="A11" s="37"/>
       <c r="B11" s="38" t="s">
         <v>15</v>
@@ -1658,7 +1658,7 @@
         <v>30180</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="17" thickTop="1" thickBot="1">
       <c r="A12" s="37"/>
       <c r="B12" s="40"/>
       <c r="C12" s="35"/>
@@ -1667,7 +1667,7 @@
       </c>
       <c r="E12" s="7"/>
     </row>
-    <row r="13" spans="1:5" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="17" thickTop="1" thickBot="1">
       <c r="A13" s="37"/>
       <c r="B13" s="40"/>
       <c r="C13" s="35"/>
@@ -1676,7 +1676,7 @@
       </c>
       <c r="E13" s="7"/>
     </row>
-    <row r="14" spans="1:5" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="17" thickTop="1" thickBot="1">
       <c r="A14" s="37"/>
       <c r="B14" s="40"/>
       <c r="C14" s="35"/>
@@ -1687,7 +1687,7 @@
         <v>30120</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="17" thickTop="1" thickBot="1">
       <c r="A15" s="37"/>
       <c r="B15" s="40"/>
       <c r="C15" s="35"/>
@@ -1698,7 +1698,7 @@
         <v>5370</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="17" thickTop="1" thickBot="1">
       <c r="A16" s="37"/>
       <c r="B16" s="39"/>
       <c r="C16" s="5" t="s">
@@ -1709,7 +1709,7 @@
         <v>22790</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="17" thickTop="1" thickBot="1">
       <c r="A17" s="37"/>
       <c r="B17" s="38" t="s">
         <v>23</v>
@@ -1720,7 +1720,7 @@
       <c r="D17" s="3"/>
       <c r="E17" s="4"/>
     </row>
-    <row r="18" spans="1:5" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="17" thickTop="1" thickBot="1">
       <c r="A18" s="37"/>
       <c r="B18" s="39"/>
       <c r="C18" s="5" t="s">
@@ -1731,7 +1731,7 @@
         <v>12560</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" ht="17" thickTop="1" thickBot="1">
       <c r="A19" s="37"/>
       <c r="B19" s="38" t="s">
         <v>26</v>
@@ -1744,7 +1744,7 @@
         <v>17890</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" ht="17" thickTop="1" thickBot="1">
       <c r="A20" s="37"/>
       <c r="B20" s="39"/>
       <c r="C20" s="5" t="s">
@@ -1755,7 +1755,7 @@
         <v>2220</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" ht="17" thickTop="1" thickBot="1">
       <c r="A21" s="37"/>
       <c r="B21" s="8" t="s">
         <v>29</v>
@@ -1768,7 +1768,7 @@
         <v>2690</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" ht="18" thickTop="1" thickBot="1">
       <c r="A22" s="37"/>
       <c r="B22" s="11" t="s">
         <v>31</v>
@@ -1779,7 +1779,7 @@
         <v>232790</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" ht="17" thickTop="1" thickBot="1">
       <c r="A23" s="37" t="s">
         <v>32</v>
       </c>
@@ -1792,7 +1792,7 @@
         <v>1070</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" ht="17" thickTop="1" thickBot="1">
       <c r="A24" s="37"/>
       <c r="B24" s="8" t="s">
         <v>34</v>
@@ -1803,7 +1803,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" ht="17" thickTop="1" thickBot="1">
       <c r="A25" s="37"/>
       <c r="B25" s="38" t="s">
         <v>35</v>
@@ -1816,7 +1816,7 @@
         <v>6840</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" ht="17" thickTop="1" thickBot="1">
       <c r="A26" s="37"/>
       <c r="B26" s="39"/>
       <c r="C26" s="5" t="s">
@@ -1827,7 +1827,7 @@
         <v>23330</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" ht="17" thickTop="1" thickBot="1">
       <c r="A27" s="37"/>
       <c r="B27" s="8" t="s">
         <v>38</v>
@@ -1838,7 +1838,7 @@
         <v>34620</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" ht="17" thickTop="1" thickBot="1">
       <c r="A28" s="37"/>
       <c r="B28" s="38" t="s">
         <v>39</v>
@@ -1853,7 +1853,7 @@
         <v>3950</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" ht="17" thickTop="1" thickBot="1">
       <c r="A29" s="37"/>
       <c r="B29" s="39"/>
       <c r="C29" s="5" t="s">
@@ -1864,7 +1864,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" ht="17" thickTop="1" thickBot="1">
       <c r="A30" s="37"/>
       <c r="B30" s="38" t="s">
         <v>43</v>
@@ -1877,7 +1877,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" ht="17" thickTop="1" thickBot="1">
       <c r="A31" s="37"/>
       <c r="B31" s="39"/>
       <c r="C31" s="5" t="s">
@@ -1888,7 +1888,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" ht="17" thickTop="1" thickBot="1">
       <c r="A32" s="37"/>
       <c r="B32" s="38" t="s">
         <v>46</v>
@@ -1901,7 +1901,7 @@
         <v>14870</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" ht="17" thickTop="1" thickBot="1">
       <c r="A33" s="37"/>
       <c r="B33" s="39"/>
       <c r="C33" s="5" t="s">
@@ -1912,7 +1912,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" ht="17" thickTop="1" thickBot="1">
       <c r="A34" s="37"/>
       <c r="B34" s="8" t="s">
         <v>49</v>
@@ -1923,7 +1923,7 @@
         <v>55160</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" ht="17" thickTop="1" thickBot="1">
       <c r="A35" s="37"/>
       <c r="B35" s="38" t="s">
         <v>50</v>
@@ -1936,7 +1936,7 @@
         <v>0.69555599999999995</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" ht="17" thickTop="1" thickBot="1">
       <c r="A36" s="37"/>
       <c r="B36" s="40"/>
       <c r="C36" s="2" t="s">
@@ -1945,7 +1945,7 @@
       <c r="D36" s="2"/>
       <c r="E36" s="7"/>
     </row>
-    <row r="37" spans="1:5" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" ht="17" thickTop="1" thickBot="1">
       <c r="A37" s="37"/>
       <c r="B37" s="40"/>
       <c r="C37" s="2" t="s">
@@ -1956,7 +1956,7 @@
         <v>134890</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" ht="17" thickTop="1" thickBot="1">
       <c r="A38" s="37"/>
       <c r="B38" s="40"/>
       <c r="C38" s="2" t="s">
@@ -1967,7 +1967,7 @@
         <v>-1880</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" ht="17" thickTop="1" thickBot="1">
       <c r="A39" s="37"/>
       <c r="B39" s="40"/>
       <c r="C39" s="2" t="s">
@@ -1978,7 +1978,7 @@
         <v>-688</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" ht="17" thickTop="1" thickBot="1">
       <c r="A40" s="37"/>
       <c r="B40" s="39"/>
       <c r="C40" s="5" t="s">
@@ -1987,7 +1987,7 @@
       <c r="D40" s="5"/>
       <c r="E40" s="6"/>
     </row>
-    <row r="41" spans="1:5" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" ht="17" thickTop="1" thickBot="1">
       <c r="A41" s="37"/>
       <c r="B41" s="8" t="s">
         <v>57</v>
@@ -1998,7 +1998,7 @@
         <v>177630</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" ht="17" thickTop="1" thickBot="1">
       <c r="A42" s="37"/>
       <c r="B42" s="8" t="s">
         <v>58</v>
@@ -2009,7 +2009,7 @@
         <v>177630</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" ht="18" thickTop="1" thickBot="1">
       <c r="A43" s="37"/>
       <c r="B43" s="11" t="s">
         <v>32</v>
@@ -2020,7 +2020,7 @@
         <v>232790</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="16" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="44" spans="1:5" ht="16" thickTop="1"/>
   </sheetData>
   <mergeCells count="15">
     <mergeCell ref="C5:C6"/>
@@ -2050,10 +2050,10 @@
   <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="87" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.33203125" bestFit="1" customWidth="1"/>
@@ -2064,7 +2064,7 @@
     <col min="7" max="7" width="6.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="51">
       <c r="A1" s="26" t="s">
         <v>63</v>
       </c>
@@ -2084,10 +2084,10 @@
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="16">
       <c r="A2" s="23">
         <f>1.2*B2+1.4*C2+3.3*D2+0.6*E2+F2</f>
-        <v>110.14097342621389</v>
+        <v>110.08030071690507</v>
       </c>
       <c r="B2" s="33">
         <f>C9/C4</f>
@@ -2099,7 +2099,7 @@
       </c>
       <c r="D2" s="33">
         <f>C5/C4</f>
-        <v>0.14996348640405516</v>
+        <v>0.13157781691653422</v>
       </c>
       <c r="E2" s="33">
         <f>C6/C7</f>
@@ -2110,7 +2110,7 @@
         <v>0.5883414236006701</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6">
       <c r="B3" s="24" t="s">
         <v>69</v>
       </c>
@@ -2122,7 +2122,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6">
       <c r="B4" s="16" t="s">
         <v>70</v>
       </c>
@@ -2134,19 +2134,19 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6">
       <c r="B5" s="16" t="s">
         <v>71</v>
       </c>
       <c r="C5" s="17">
-        <f>Data!C27</f>
-        <v>34910</v>
-      </c>
-      <c r="D5" s="16" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+        <f>Data!C19</f>
+        <v>30630</v>
+      </c>
+      <c r="D5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="16">
       <c r="B6" s="16" t="s">
         <v>72</v>
       </c>
@@ -2157,7 +2157,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6">
       <c r="B7" s="16" t="s">
         <v>73</v>
       </c>
@@ -2169,7 +2169,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6">
       <c r="B8" s="20" t="s">
         <v>74</v>
       </c>
@@ -2181,7 +2181,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6">
       <c r="B9" s="22" t="s">
         <v>213</v>
       </c>
@@ -2193,7 +2193,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" ht="16">
       <c r="A11" s="41" t="s">
         <v>215</v>
       </c>
@@ -2202,7 +2202,7 @@
       <c r="D11" s="41"/>
       <c r="E11" s="41"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6">
       <c r="A12" s="16" t="s">
         <v>216</v>
       </c>
@@ -2222,7 +2222,7 @@
         <v>7910</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6">
       <c r="A13" s="16" t="s">
         <v>217</v>
       </c>
@@ -2241,7 +2241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6">
       <c r="A14" s="16" t="s">
         <v>218</v>
       </c>
@@ -2261,7 +2261,7 @@
         <v>4012</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6">
       <c r="A15" s="16" t="s">
         <v>219</v>
       </c>
@@ -2281,7 +2281,7 @@
         <v>177630</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" ht="51">
       <c r="A16" s="28" t="s">
         <v>224</v>
       </c>
@@ -2289,14 +2289,14 @@
         <v>225</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" ht="16">
       <c r="A18" s="42" t="s">
         <v>226</v>
       </c>
       <c r="B18" s="42"/>
       <c r="C18" s="42"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7">
       <c r="A19" s="16" t="s">
         <v>227</v>
       </c>
@@ -2308,7 +2308,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7">
       <c r="A20" s="16" t="s">
         <v>228</v>
       </c>
@@ -2320,7 +2320,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7">
       <c r="A21" s="16" t="s">
         <v>229</v>
       </c>
@@ -2332,7 +2332,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" ht="51">
       <c r="A22" s="28" t="s">
         <v>224</v>
       </c>
@@ -2340,7 +2340,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" ht="16">
       <c r="A24" s="41" t="s">
         <v>232</v>
       </c>
@@ -2361,7 +2361,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7">
       <c r="A25" s="16" t="s">
         <v>233</v>
       </c>
@@ -2386,7 +2386,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7">
       <c r="A26" s="16" t="s">
         <v>234</v>
       </c>
@@ -2411,7 +2411,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7">
       <c r="A27" s="16" t="s">
         <v>235</v>
       </c>
@@ -2436,7 +2436,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7">
       <c r="A28" s="16" t="s">
         <v>236</v>
       </c>
@@ -2461,7 +2461,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7">
       <c r="A29" s="16" t="s">
         <v>237</v>
       </c>
@@ -2486,7 +2486,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7">
       <c r="A30" s="16" t="s">
         <v>238</v>
       </c>
@@ -2511,7 +2511,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" ht="16">
       <c r="A31" s="28" t="s">
         <v>244</v>
       </c>
@@ -2540,15 +2540,15 @@
   <dimension ref="A1:C196"/>
   <sheetViews>
     <sheetView topLeftCell="A12" zoomScale="135" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="49.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="B1" s="19" t="s">
         <v>62</v>
       </c>
@@ -2556,7 +2556,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3">
       <c r="A2" s="19">
         <v>0</v>
       </c>
@@ -2567,7 +2567,7 @@
         <v>136960</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3">
       <c r="A3" s="19">
         <v>1</v>
       </c>
@@ -2575,7 +2575,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3">
       <c r="A4" s="19">
         <v>2</v>
       </c>
@@ -2586,7 +2586,7 @@
         <v>59550</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3">
       <c r="A5" s="19">
         <v>3</v>
       </c>
@@ -2597,7 +2597,7 @@
         <v>50510</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3">
       <c r="A6" s="19">
         <v>4</v>
       </c>
@@ -2608,7 +2608,7 @@
         <v>9040</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3">
       <c r="A7" s="19">
         <v>5</v>
       </c>
@@ -2619,7 +2619,7 @@
         <v>8160</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3">
       <c r="A8" s="19">
         <v>6</v>
       </c>
@@ -2630,7 +2630,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3">
       <c r="A9" s="19">
         <v>7</v>
       </c>
@@ -2638,7 +2638,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3">
       <c r="A10" s="19">
         <v>8</v>
       </c>
@@ -2649,7 +2649,7 @@
         <v>77410</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3">
       <c r="A11" s="19">
         <v>9</v>
       </c>
@@ -2657,7 +2657,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3">
       <c r="A12" s="19">
         <v>10</v>
       </c>
@@ -2665,7 +2665,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3">
       <c r="A13" s="19">
         <v>11</v>
       </c>
@@ -2676,7 +2676,7 @@
         <v>45880</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3">
       <c r="A14" s="19">
         <v>12</v>
       </c>
@@ -2687,7 +2687,7 @@
         <v>21420</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3">
       <c r="A15" s="19">
         <v>13</v>
       </c>
@@ -2698,7 +2698,7 @@
         <v>24460</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3">
       <c r="A16" s="19">
         <v>14</v>
       </c>
@@ -2706,7 +2706,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3">
       <c r="A17" s="19">
         <v>15</v>
       </c>
@@ -2714,7 +2714,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3">
       <c r="A18" s="19">
         <v>16</v>
       </c>
@@ -2725,7 +2725,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3">
       <c r="A19" s="19">
         <v>17</v>
       </c>
@@ -2736,7 +2736,7 @@
         <v>30630</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3">
       <c r="A20" s="19">
         <v>18</v>
       </c>
@@ -2747,7 +2747,7 @@
         <v>2640</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3">
       <c r="A21" s="19">
         <v>19</v>
       </c>
@@ -2758,7 +2758,7 @@
         <v>1880</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3">
       <c r="A22" s="19">
         <v>20</v>
       </c>
@@ -2769,7 +2769,7 @@
         <v>-120</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3">
       <c r="A23" s="19">
         <v>21</v>
       </c>
@@ -2780,7 +2780,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3">
       <c r="A24" s="19">
         <v>22</v>
       </c>
@@ -2788,7 +2788,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3">
       <c r="A25" s="19">
         <v>23</v>
       </c>
@@ -2799,7 +2799,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3">
       <c r="A26" s="19">
         <v>24</v>
       </c>
@@ -2810,7 +2810,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3">
       <c r="A27" s="19">
         <v>25</v>
       </c>
@@ -2821,7 +2821,7 @@
         <v>34910</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3">
       <c r="A28" s="19">
         <v>26</v>
       </c>
@@ -2829,7 +2829,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3">
       <c r="A29" s="19">
         <v>27</v>
       </c>
@@ -2837,7 +2837,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3">
       <c r="A30" s="19">
         <v>28</v>
       </c>
@@ -2848,7 +2848,7 @@
         <v>4179.9999999999991</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3">
       <c r="A31" s="19">
         <v>29</v>
       </c>
@@ -2859,7 +2859,7 @@
         <v>2150</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3">
       <c r="A32" s="19">
         <v>30</v>
       </c>
@@ -2870,7 +2870,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3">
       <c r="A33" s="19">
         <v>31</v>
       </c>
@@ -2881,7 +2881,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3">
       <c r="A34" s="19">
         <v>32</v>
       </c>
@@ -2892,7 +2892,7 @@
         <v>-134</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3">
       <c r="A35" s="19">
         <v>33</v>
       </c>
@@ -2900,7 +2900,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3">
       <c r="A36" s="19">
         <v>34</v>
       </c>
@@ -2908,7 +2908,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3">
       <c r="A37" s="19">
         <v>35</v>
       </c>
@@ -2916,7 +2916,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3">
       <c r="A38" s="19">
         <v>36</v>
       </c>
@@ -2927,7 +2927,7 @@
         <v>30740</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3">
       <c r="A39" s="19">
         <v>37</v>
       </c>
@@ -2935,7 +2935,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3">
       <c r="A40" s="19">
         <v>38</v>
       </c>
@@ -2946,7 +2946,7 @@
         <v>30740</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3">
       <c r="A41" s="19">
         <v>39</v>
       </c>
@@ -2954,7 +2954,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3">
       <c r="A42" s="19">
         <v>40</v>
       </c>
@@ -2962,7 +2962,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3">
       <c r="A43" s="19">
         <v>41</v>
       </c>
@@ -2970,7 +2970,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3">
       <c r="A44" s="19">
         <v>42</v>
       </c>
@@ -2978,7 +2978,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3">
       <c r="A45" s="19">
         <v>43</v>
       </c>
@@ -2986,7 +2986,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3">
       <c r="A46" s="19">
         <v>44</v>
       </c>
@@ -2994,7 +2994,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3">
       <c r="A47" s="19">
         <v>45</v>
       </c>
@@ -3005,7 +3005,7 @@
         <v>30740</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3">
       <c r="A48" s="19">
         <v>46</v>
       </c>
@@ -3013,7 +3013,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3">
       <c r="A49" s="19">
         <v>47</v>
       </c>
@@ -3024,7 +3024,7 @@
         <v>30740</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3">
       <c r="A50" s="19">
         <v>48</v>
       </c>
@@ -3035,7 +3035,7 @@
         <v>4.422E-5</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3">
       <c r="A51" s="19">
         <v>49</v>
       </c>
@@ -3043,7 +3043,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:3">
       <c r="A52" s="19">
         <v>50</v>
       </c>
@@ -3054,7 +3054,7 @@
         <v>695.14</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:3">
       <c r="A53" s="19">
         <v>51</v>
       </c>
@@ -3065,7 +3065,7 @@
         <v>4.3700000000000012E-5</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:3">
       <c r="A54" s="19">
         <v>52</v>
       </c>
@@ -3073,7 +3073,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:3">
       <c r="A55" s="19">
         <v>53</v>
       </c>
@@ -3084,7 +3084,7 @@
         <v>703.29</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:3">
       <c r="A56" s="19">
         <v>54</v>
       </c>
@@ -3095,7 +3095,7 @@
         <v>40570</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:3">
       <c r="A57" s="19">
         <v>55</v>
       </c>
@@ -3103,7 +3103,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:3">
       <c r="A58" s="19">
         <v>56</v>
       </c>
@@ -3111,7 +3111,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:3">
       <c r="A59" s="19">
         <v>57</v>
       </c>
@@ -3122,7 +3122,7 @@
         <v>109140</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:3">
       <c r="A60" s="19">
         <v>58</v>
       </c>
@@ -3133,7 +3133,7 @@
         <v>16700</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:3">
       <c r="A61" s="19">
         <v>59</v>
       </c>
@@ -3144,7 +3144,7 @@
         <v>92440</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:3">
       <c r="A62" s="19">
         <v>60</v>
       </c>
@@ -3152,7 +3152,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:3">
       <c r="A63" s="19">
         <v>61</v>
       </c>
@@ -3163,7 +3163,7 @@
         <v>4.6880000000000012E-7</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:3">
       <c r="A64" s="19">
         <v>62</v>
       </c>
@@ -3174,7 +3174,7 @@
         <v>21190</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:3">
       <c r="A65" s="19">
         <v>63</v>
       </c>
@@ -3185,7 +3185,7 @@
         <v>20840</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:3">
       <c r="A66" s="19">
         <v>64</v>
       </c>
@@ -3196,7 +3196,7 @@
         <v>21570</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:3">
       <c r="A67" s="19">
         <v>65</v>
       </c>
@@ -3207,7 +3207,7 @@
         <v>-729</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:3">
       <c r="A68" s="19">
         <v>66</v>
       </c>
@@ -3218,7 +3218,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:3">
       <c r="A69" s="19">
         <v>67</v>
       </c>
@@ -3226,7 +3226,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:3">
       <c r="A70" s="19">
         <v>68</v>
       </c>
@@ -3237,7 +3237,7 @@
         <v>6.46E-6</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:3">
       <c r="A71" s="19">
         <v>69</v>
       </c>
@@ -3248,7 +3248,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:3">
       <c r="A72" s="19">
         <v>70</v>
       </c>
@@ -3259,7 +3259,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:3">
       <c r="A73" s="19">
         <v>71</v>
       </c>
@@ -3267,7 +3267,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:3">
       <c r="A74" s="19">
         <v>72</v>
       </c>
@@ -3275,7 +3275,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:3">
       <c r="A75" s="19">
         <v>73</v>
       </c>
@@ -3283,7 +3283,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:3">
       <c r="A76" s="19">
         <v>74</v>
       </c>
@@ -3294,7 +3294,7 @@
         <v>4240</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:3">
       <c r="A77" s="19">
         <v>75</v>
       </c>
@@ -3305,7 +3305,7 @@
         <v>4240</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:3">
       <c r="A78" s="19">
         <v>76</v>
       </c>
@@ -3316,7 +3316,7 @@
         <v>135680</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:3">
       <c r="A79" s="19">
         <v>77</v>
       </c>
@@ -3327,7 +3327,7 @@
         <v>59720</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:3">
       <c r="A80" s="19">
         <v>78</v>
       </c>
@@ -3338,7 +3338,7 @@
         <v>82510</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:3">
       <c r="A81" s="19">
         <v>79</v>
       </c>
@@ -3349,7 +3349,7 @@
         <v>30180</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:3">
       <c r="A82" s="19">
         <v>80</v>
       </c>
@@ -3357,7 +3357,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:3">
       <c r="A83" s="19">
         <v>81</v>
       </c>
@@ -3368,7 +3368,7 @@
         <v>30120</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:3">
       <c r="A84" s="19">
         <v>82</v>
       </c>
@@ -3379,7 +3379,7 @@
         <v>5370</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:3">
       <c r="A85" s="19">
         <v>83</v>
       </c>
@@ -3390,7 +3390,7 @@
         <v>22790</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:3">
       <c r="A86" s="19">
         <v>84</v>
       </c>
@@ -3401,7 +3401,7 @@
         <v>13860</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:3">
       <c r="A87" s="19">
         <v>85</v>
       </c>
@@ -3412,7 +3412,7 @@
         <v>12560</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:3">
       <c r="A88" s="19">
         <v>86</v>
       </c>
@@ -3420,7 +3420,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:3">
       <c r="A89" s="19">
         <v>87</v>
       </c>
@@ -3431,7 +3431,7 @@
         <v>20110</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:3">
       <c r="A90" s="19">
         <v>88</v>
       </c>
@@ -3442,7 +3442,7 @@
         <v>17890</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:3">
       <c r="A91" s="19">
         <v>89</v>
       </c>
@@ -3453,7 +3453,7 @@
         <v>2220</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:3">
       <c r="A92" s="19">
         <v>90</v>
       </c>
@@ -3464,7 +3464,7 @@
         <v>2690</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:3">
       <c r="A93" s="19">
         <v>91</v>
       </c>
@@ -3475,7 +3475,7 @@
         <v>2690</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:3">
       <c r="A94" s="19">
         <v>92</v>
       </c>
@@ -3486,7 +3486,7 @@
         <v>232790</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:3">
       <c r="A95" s="19">
         <v>93</v>
       </c>
@@ -3494,7 +3494,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:3">
       <c r="A96" s="19">
         <v>94</v>
       </c>
@@ -3502,7 +3502,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:3">
       <c r="A97" s="19">
         <v>95</v>
       </c>
@@ -3510,7 +3510,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:3">
       <c r="A98" s="19">
         <v>96</v>
       </c>
@@ -3518,7 +3518,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:3">
       <c r="A99" s="19">
         <v>97</v>
       </c>
@@ -3529,7 +3529,7 @@
         <v>4380</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:3">
       <c r="A100" s="19">
         <v>98</v>
       </c>
@@ -3537,7 +3537,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:3">
       <c r="A101" s="19">
         <v>99</v>
       </c>
@@ -3548,7 +3548,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:3">
       <c r="A102" s="19">
         <v>100</v>
       </c>
@@ -3559,7 +3559,7 @@
         <v>30170</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:3">
       <c r="A103" s="19">
         <v>101</v>
       </c>
@@ -3567,7 +3567,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:3">
       <c r="A104" s="19">
         <v>102</v>
       </c>
@@ -3578,7 +3578,7 @@
         <v>6840</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:3">
       <c r="A105" s="19">
         <v>103</v>
       </c>
@@ -3589,7 +3589,7 @@
         <v>23330</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:3">
       <c r="A106" s="19">
         <v>104</v>
       </c>
@@ -3600,7 +3600,7 @@
         <v>34620</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:3">
       <c r="A107" s="19">
         <v>105</v>
       </c>
@@ -3611,7 +3611,7 @@
         <v>4010</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:3">
       <c r="A108" s="19">
         <v>106</v>
       </c>
@@ -3622,7 +3622,7 @@
         <v>3950</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:3">
       <c r="A109" s="19">
         <v>107</v>
       </c>
@@ -3633,7 +3633,7 @@
         <v>3950</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:3">
       <c r="A110" s="19">
         <v>108</v>
       </c>
@@ -3641,7 +3641,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:3">
       <c r="A111" s="19">
         <v>109</v>
       </c>
@@ -3652,7 +3652,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:3">
       <c r="A112" s="19">
         <v>110</v>
       </c>
@@ -3660,7 +3660,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:3">
       <c r="A113" s="19">
         <v>111</v>
       </c>
@@ -3671,7 +3671,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:3">
       <c r="A114" s="19">
         <v>112</v>
       </c>
@@ -3682,7 +3682,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:3">
       <c r="A115" s="19">
         <v>113</v>
       </c>
@@ -3693,7 +3693,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:3">
       <c r="A116" s="19">
         <v>114</v>
       </c>
@@ -3704,7 +3704,7 @@
         <v>15270</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:3">
       <c r="A117" s="19">
         <v>115</v>
       </c>
@@ -3715,7 +3715,7 @@
         <v>14870</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:3">
       <c r="A118" s="19">
         <v>116</v>
       </c>
@@ -3726,7 +3726,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:3">
       <c r="A119" s="19">
         <v>117</v>
       </c>
@@ -3737,7 +3737,7 @@
         <v>55160</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:3">
       <c r="A120" s="19">
         <v>118</v>
       </c>
@@ -3745,7 +3745,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:3">
       <c r="A121" s="19">
         <v>119</v>
       </c>
@@ -3756,7 +3756,7 @@
         <v>2.3699999999999999E-7</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:3">
       <c r="A122" s="19">
         <v>120</v>
       </c>
@@ -3764,7 +3764,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:3">
       <c r="A123" s="19">
         <v>121</v>
       </c>
@@ -3772,7 +3772,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:3">
       <c r="A124" s="19">
         <v>122</v>
       </c>
@@ -3780,7 +3780,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:3">
       <c r="A125" s="19">
         <v>123</v>
       </c>
@@ -3791,7 +3791,7 @@
         <v>177630</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:3">
       <c r="A126" s="19">
         <v>124</v>
       </c>
@@ -3802,7 +3802,7 @@
         <v>0.69555599999999995</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:3">
       <c r="A127" s="19">
         <v>125</v>
       </c>
@@ -3813,7 +3813,7 @@
         <v>134890</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:3">
       <c r="A128" s="19">
         <v>126</v>
       </c>
@@ -3821,7 +3821,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:3">
       <c r="A129" s="19">
         <v>127</v>
       </c>
@@ -3832,7 +3832,7 @@
         <v>-1880</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:3">
       <c r="A130" s="19">
         <v>128</v>
       </c>
@@ -3843,7 +3843,7 @@
         <v>-688</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:3">
       <c r="A131" s="19">
         <v>129</v>
       </c>
@@ -3851,7 +3851,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:3">
       <c r="A132" s="19">
         <v>130</v>
       </c>
@@ -3859,7 +3859,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:3">
       <c r="A133" s="19">
         <v>131</v>
       </c>
@@ -3870,7 +3870,7 @@
         <v>7.6300000000000004E-7</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:3">
       <c r="A134" s="19">
         <v>132</v>
       </c>
@@ -3881,7 +3881,7 @@
         <v>177630</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:3">
       <c r="A135" s="19">
         <v>133</v>
       </c>
@@ -3892,7 +3892,7 @@
         <v>7.6300000000000004E-7</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:3">
       <c r="A136" s="19">
         <v>134</v>
       </c>
@@ -3900,7 +3900,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:3">
       <c r="A137" s="19">
         <v>135</v>
       </c>
@@ -3911,7 +3911,7 @@
         <v>177630</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:3">
       <c r="A138" s="19">
         <v>136</v>
       </c>
@@ -3922,7 +3922,7 @@
         <v>232790</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:3">
       <c r="A139" s="19">
         <v>137</v>
       </c>
@@ -3933,7 +3933,7 @@
         <v>30740</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:3">
       <c r="A140" s="19">
         <v>138</v>
       </c>
@@ -3941,7 +3941,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:3">
       <c r="A141" s="19">
         <v>139</v>
       </c>
@@ -3952,7 +3952,7 @@
         <v>9040</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:3">
       <c r="A142" s="19">
         <v>140</v>
       </c>
@@ -3963,7 +3963,7 @@
         <v>8160</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:3">
       <c r="A143" s="19">
         <v>141</v>
       </c>
@@ -3974,7 +3974,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:3">
       <c r="A144" s="19">
         <v>142</v>
       </c>
@@ -3985,7 +3985,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:3">
       <c r="A145" s="19">
         <v>143</v>
       </c>
@@ -3996,7 +3996,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:3">
       <c r="A146" s="19">
         <v>144</v>
       </c>
@@ -4004,7 +4004,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:3">
       <c r="A147" s="19">
         <v>145</v>
       </c>
@@ -4015,7 +4015,7 @@
         <v>2510</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:3">
       <c r="A148" s="19">
         <v>146</v>
       </c>
@@ -4026,7 +4026,7 @@
         <v>43060</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:3">
       <c r="A149" s="19">
         <v>147</v>
       </c>
@@ -4034,7 +4034,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:3">
       <c r="A150" s="19">
         <v>148</v>
       </c>
@@ -4045,7 +4045,7 @@
         <v>4910</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:3">
       <c r="A151" s="19">
         <v>149</v>
       </c>
@@ -4056,7 +4056,7 @@
         <v>-2170</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:3">
       <c r="A152" s="19">
         <v>150</v>
       </c>
@@ -4067,7 +4067,7 @@
         <v>1070</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:3">
       <c r="A153" s="19">
         <v>151</v>
       </c>
@@ -4078,7 +4078,7 @@
         <v>-836</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:3">
       <c r="A154" s="19">
         <v>152</v>
       </c>
@@ -4089,7 +4089,7 @@
         <v>47970</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:3">
       <c r="A155" s="19">
         <v>153</v>
       </c>
@@ -4097,7 +4097,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:3">
       <c r="A156" s="19">
         <v>154</v>
       </c>
@@ -4108,7 +4108,7 @@
         <v>3.5030000000000001E-7</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:3">
       <c r="A157" s="19">
         <v>155</v>
       </c>
@@ -4119,7 +4119,7 @@
         <v>-25140</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:3">
       <c r="A158" s="19">
         <v>156</v>
       </c>
@@ -4130,7 +4130,7 @@
         <v>-25140</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:3">
       <c r="A159" s="19">
         <v>157</v>
       </c>
@@ -4138,7 +4138,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:3">
       <c r="A160" s="19">
         <v>158</v>
       </c>
@@ -4146,7 +4146,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:3">
       <c r="A161" s="19">
         <v>159</v>
       </c>
@@ -4157,7 +4157,7 @@
         <v>-1.836E-7</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:3">
       <c r="A162" s="19">
         <v>160</v>
       </c>
@@ -4168,7 +4168,7 @@
         <v>-1490</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:3">
       <c r="A163" s="19">
         <v>161</v>
       </c>
@@ -4179,7 +4179,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:3">
       <c r="A164" s="19">
         <v>162</v>
       </c>
@@ -4190,7 +4190,7 @@
         <v>-1970</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:3">
       <c r="A165" s="19">
         <v>163</v>
       </c>
@@ -4201,7 +4201,7 @@
         <v>-52230</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:3">
       <c r="A166" s="19">
         <v>164</v>
       </c>
@@ -4212,7 +4212,7 @@
         <v>50260</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:3">
       <c r="A167" s="19">
         <v>165</v>
       </c>
@@ -4220,7 +4220,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:3">
       <c r="A168" s="19">
         <v>166</v>
       </c>
@@ -4228,7 +4228,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:3">
       <c r="A169" s="19">
         <v>167</v>
       </c>
@@ -4239,7 +4239,7 @@
         <v>-28500</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:3">
       <c r="A170" s="19">
         <v>168</v>
       </c>
@@ -4247,7 +4247,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:3">
       <c r="A171" s="19">
         <v>169</v>
       </c>
@@ -4258,7 +4258,7 @@
         <v>-2.0809999999999999E-7</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:3">
       <c r="A172" s="19">
         <v>170</v>
       </c>
@@ -4266,7 +4266,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:3">
       <c r="A173" s="19">
         <v>171</v>
       </c>
@@ -4274,7 +4274,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:3">
       <c r="A174" s="19">
         <v>172</v>
       </c>
@@ -4282,7 +4282,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:3">
       <c r="A175" s="19">
         <v>173</v>
       </c>
@@ -4293,7 +4293,7 @@
         <v>-9080</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:3">
       <c r="A176" s="19">
         <v>174</v>
       </c>
@@ -4304,7 +4304,7 @@
         <v>-9080</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:3">
       <c r="A177" s="19">
         <v>175</v>
       </c>
@@ -4312,7 +4312,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:3">
       <c r="A178" s="19">
         <v>176</v>
       </c>
@@ -4320,7 +4320,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:3">
       <c r="A179" s="19">
         <v>177</v>
       </c>
@@ -4328,7 +4328,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:3">
       <c r="A180" s="19">
         <v>178</v>
       </c>
@@ -4339,7 +4339,7 @@
         <v>-61</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:3">
       <c r="A181" s="19">
         <v>179</v>
       </c>
@@ -4347,7 +4347,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:3">
       <c r="A182" s="19">
         <v>180</v>
       </c>
@@ -4358,7 +4358,7 @@
         <v>-61</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:3">
       <c r="A183" s="19">
         <v>181</v>
       </c>
@@ -4369,7 +4369,7 @@
         <v>6770</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:3">
       <c r="A184" s="19">
         <v>182</v>
       </c>
@@ -4380,7 +4380,7 @@
         <v>-6830</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:3">
       <c r="A185" s="19">
         <v>183</v>
       </c>
@@ -4391,7 +4391,7 @@
         <v>-4040</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:3">
       <c r="A186" s="19">
         <v>184</v>
       </c>
@@ -4402,7 +4402,7 @@
         <v>-4990</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:3">
       <c r="A187" s="19">
         <v>185</v>
       </c>
@@ -4413,7 +4413,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:3">
       <c r="A188" s="19">
         <v>186</v>
       </c>
@@ -4424,7 +4424,7 @@
         <v>-13180</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:3">
       <c r="A189" s="19">
         <v>187</v>
       </c>
@@ -4432,7 +4432,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:3">
       <c r="A190" s="19">
         <v>188</v>
       </c>
@@ -4443,7 +4443,7 @@
         <v>-9.6199999999999988E-8</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:3">
       <c r="A191" s="19">
         <v>189</v>
       </c>
@@ -4454,7 +4454,7 @@
         <v>-302</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:3">
       <c r="A192" s="19">
         <v>190</v>
       </c>
@@ -4462,7 +4462,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:3">
       <c r="A193" s="19">
         <v>191</v>
       </c>
@@ -4473,7 +4473,7 @@
         <v>5990</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:3">
       <c r="A194" s="19">
         <v>192</v>
       </c>
@@ -4484,7 +4484,7 @@
         <v>22830</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:3">
       <c r="A195" s="19">
         <v>193</v>
       </c>
@@ -4492,7 +4492,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:3">
       <c r="A196" s="19">
         <v>194</v>
       </c>
